--- a/biology/Botanique/Lactuca_sativa_var._angustana/Lactuca_sativa_var._angustana.xlsx
+++ b/biology/Botanique/Lactuca_sativa_var._angustana/Lactuca_sativa_var._angustana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laitue chinoise
 La laitue chinoise (Lactuca sativa var. angustana, augustana ou asparagina), laitue branche, laitue asperge ou celtuce, est une variété de laitue qui pousse avec un cœur ferme et long et une longue tête de feuilles. Son cœur est consommé en Chine, où elle est appelée wosun (chinois : 莴笋 ; pinyin : wōsǔn) ou parfois qingsun (青笋, qīngsǔn), coupé en tranches, puis cuit, dans les plats de légumes.
